--- a/FrontedLRAngular/ejemplo.xlsx
+++ b/FrontedLRAngular/ejemplo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalizacion" sheetId="1" r:id="rId1"/>
+    <sheet name="Flujo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>Entidad</t>
   </si>
@@ -73,13 +74,1283 @@
   </si>
   <si>
     <t>id, name, saldo_actual, tipo</t>
+  </si>
+  <si>
+    <t>🧍‍♂️ 1. USUARIO</t>
+  </si>
+  <si>
+    <t>Representa a la persona que usa el sistema.</t>
+  </si>
+  <si>
+    <t>🧩 Atributos:</t>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Identificador único.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Nombre del usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Contraseña cifrada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Rol del sistema (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ROLE_USER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ROLE_ADMIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.).</t>
+    </r>
+  </si>
+  <si>
+    <t>🔧 Acciones:</t>
+  </si>
+  <si>
+    <r>
+      <t>POST /register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Crear usuario nuevo (con hash en la contraseña).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POST /login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Autenticación con JWT o sesión.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /user/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Obtener información del usuario autenticado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /user/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Actualizar nombre o contraseña.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /user/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → (opcional) eliminar cuenta y todas sus relaciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧠 Lógica:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validar que el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sea único.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cifrar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> antes de guardarlo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Asociar automáticamente cuentas por defecto al registrarse (por ejemplo, “Cuenta principal”).</t>
+  </si>
+  <si>
+    <t>💰 2. CUENTA</t>
+  </si>
+  <si>
+    <t>Representa una cuenta bancaria, billetera o fondo.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ej: "Banco BBVA", "Efectivo")</t>
+    </r>
+  </si>
+  <si>
+    <t>saldo_actual</t>
+  </si>
+  <si>
+    <r>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ej: “Ahorros”, “Corriente”, “Cripto”, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>usuario_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK hacia USUARIO)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POST /account/create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Crear una nueva cuenta del usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /account/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Ver saldo actual y movimientos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /account/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Editar nombre o tipo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /account/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Eliminar cuenta (si no tiene transacciones, o con confirmación).</t>
+    </r>
+  </si>
+  <si>
+    <t>Cada usuario puede tener varias cuentas.</t>
+  </si>
+  <si>
+    <r>
+      <t>saldo_actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se actualiza automáticamente con cada transacción:</t>
+    </r>
+  </si>
+  <si>
+    <t>if (transaccion.tipo == "Ingreso") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cuenta.saldo_actual += transaccion.monto;</t>
+  </si>
+  <si>
+    <t>} else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cuenta.saldo_actual -= transaccion.monto;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>🗂️ 3. CATEGORIA</t>
+  </si>
+  <si>
+    <t>Clasifica las transacciones en tipos o grupos.</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ej: “Comida”, “Transporte”, “Salario”)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ingreso/Egreso)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POST /category/create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Crear categoría nueva.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Listar categorías.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /category/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Cambiar nombre o tipo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /category/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Eliminar categoría (si no tiene transacciones).</t>
+    </r>
+  </si>
+  <si>
+    <t>Las categorías ayudan a generar reportes (por tipo o por rango de fechas).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al crear una transacción se debe validar que el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la categoría coincida con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la transacción.</t>
+    </r>
+  </si>
+  <si>
+    <t>💸 4. TRANSACCION</t>
+  </si>
+  <si>
+    <t>Representa un ingreso o gasto registrado por el usuario.</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <r>
+      <t>usuario_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cuenta_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>categoria_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>POST /transaction/create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Crear transacción.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GET /transactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Listar transacciones (por usuario, cuenta, rango de fechas o tipo).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PUT /transaction/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Editar monto, descripción o fecha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE /transaction/{id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Eliminar (revertir saldo en la cuenta).</t>
+    </r>
+  </si>
+  <si>
+    <t>Al crear:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actualizar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saldo_actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la cuenta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validar que </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>monto &gt; 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validar consistencia entre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de transacción y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de categoría.</t>
+    </r>
+  </si>
+  <si>
+    <t>Al eliminar:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Revertir el efecto en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saldo_actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>📊 Reportes y funciones extra</t>
+  </si>
+  <si>
+    <t>Una vez implementado el CRUD de todas las entidades, puedes agregar:</t>
+  </si>
+  <si>
+    <t>📈 Dashboard (Consultas derivadas)</t>
+  </si>
+  <si>
+    <r>
+      <t>Total de ingresos/egresos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del mes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Saldo total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (sumatoria de todas las cuentas).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gráficas por categoría</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ej: pastel de gastos mensuales).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Comparativa mensual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de ingresos vs egresos.</t>
+    </r>
+  </si>
+  <si>
+    <t>💡 Funciones adicionales</t>
+  </si>
+  <si>
+    <r>
+      <t>Filtrar transacciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> por categoría, tipo, o fecha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exportar reportes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a PDF o Excel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Notificaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ej: “Saldo bajo” o “Gasto alto en comida”).</t>
+    </r>
+  </si>
+  <si>
+    <t>🚀 Ejemplo de flujo completo</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se registra.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Sistema crea una cuenta por defecto “Efectivo” con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saldo_actual = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Usuario agrega una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categoría</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “Salario” (Ingreso) y otra “Comida” (Egreso).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Crea una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transacción ingreso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tipo = Ingreso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>monto = 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>categoria = Salario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cuenta = Efectivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema suma el monto al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saldo_actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la cuenta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Crea una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transacción egreso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tipo = Egreso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>monto = 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>categoria = Comida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cuenta = Efectivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema resta el monto del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saldo_actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. En el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, el sistema muestra:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresos totales: 1000</t>
+  </si>
+  <si>
+    <t>Egresos totales: 200</t>
+  </si>
+  <si>
+    <t>Saldo actual: 800</t>
+  </si>
+  <si>
+    <t>N A 1</t>
+  </si>
+  <si>
+    <t>TRANSACCIONES</t>
+  </si>
+  <si>
+    <t>1 A N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>TRANSPORTE</t>
+  </si>
+  <si>
+    <t>COMIDA</t>
+  </si>
+  <si>
+    <t>VIAJES</t>
+  </si>
+  <si>
+    <t>TRABAJO</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>EGRESO</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>I_EXTRAS</t>
+  </si>
+  <si>
+    <t>E_EXTRAS</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>I_RENTAS</t>
+  </si>
+  <si>
+    <t>userid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +1366,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +1404,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -326,6 +1642,102 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,11 +2020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="58.6640625" customWidth="1"/>
@@ -620,8 +2032,8 @@
     <col min="6" max="6" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1">
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
@@ -635,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -652,7 +2064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
@@ -666,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
@@ -680,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15" thickBot="1">
       <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
@@ -693,6 +2105,2489 @@
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="L80" activeCellId="1" sqref="N80 L80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="18">
+      <c r="A27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="23.4">
+      <c r="A37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" ht="18">
+      <c r="A41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="35"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="35"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="35"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="35"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:13" ht="18">
+      <c r="A53" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="35"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="35"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="J58" t="s">
+        <v>106</v>
+      </c>
+      <c r="K58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="J59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>107</v>
+      </c>
+      <c r="M59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="35"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="J60">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:13" ht="18">
+      <c r="A63" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="35"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="35"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="38"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="1:14" ht="23.4">
+      <c r="A77" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="K79" t="s">
+        <v>109</v>
+      </c>
+      <c r="L79" t="s">
+        <v>110</v>
+      </c>
+      <c r="M79" t="s">
+        <v>111</v>
+      </c>
+      <c r="N79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80" t="s">
+        <v>117</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="18">
+      <c r="A81" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>113</v>
+      </c>
+      <c r="M81" t="s">
+        <v>117</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="44"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82" t="s">
+        <v>114</v>
+      </c>
+      <c r="M82" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83" t="s">
+        <v>115</v>
+      </c>
+      <c r="M83" t="s">
+        <v>118</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="44"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84" t="s">
+        <v>119</v>
+      </c>
+      <c r="M84" t="s">
+        <v>118</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="K85">
+        <v>6</v>
+      </c>
+      <c r="L85" t="s">
+        <v>116</v>
+      </c>
+      <c r="M85" t="s">
+        <v>117</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="44"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="L86" t="s">
+        <v>121</v>
+      </c>
+      <c r="M86" t="s">
+        <v>117</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="K87">
+        <v>8</v>
+      </c>
+      <c r="L87" t="s">
+        <v>120</v>
+      </c>
+      <c r="M87" t="s">
+        <v>117</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="K88">
+        <v>9</v>
+      </c>
+      <c r="L88" t="s">
+        <v>122</v>
+      </c>
+      <c r="M88" t="s">
+        <v>118</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="18">
+      <c r="A89" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="44"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="44"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="44"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="44"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+    </row>
+    <row r="99" spans="1:9" ht="18">
+      <c r="A99" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="44"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="44"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="40"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+    </row>
+    <row r="107" spans="1:9" ht="23.4">
+      <c r="A107" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+    </row>
+    <row r="111" spans="1:9" ht="18">
+      <c r="A111" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="28"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="28"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="28"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="28"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="28"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="28"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="28"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="28"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+    </row>
+    <row r="129" spans="1:8" ht="18">
+      <c r="A129" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="28"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="28"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="28"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="28"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+    </row>
+    <row r="139" spans="1:8" ht="18">
+      <c r="A139" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="28"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="28"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="28"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="47"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="47"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="47"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="28"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="28"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="28"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="47"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="48"/>
+      <c r="B157" s="48"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="48"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+    </row>
+    <row r="159" spans="1:8" ht="23.4">
+      <c r="A159" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="48"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="48"/>
+      <c r="B160" s="48"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="48"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
+    </row>
+    <row r="163" spans="1:7" ht="18">
+      <c r="A163" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="48"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="48"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="51"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="48"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="51"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="48"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="51"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="51"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="48"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
+    </row>
+    <row r="173" spans="1:7" ht="18">
+      <c r="A173" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" s="48"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="51"/>
+      <c r="B174" s="48"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="51"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="51"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="48"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="48"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="48"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+    </row>
+    <row r="183" spans="1:7" ht="23.4">
+      <c r="A183" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="51"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="51"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B187" s="48"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="51"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="51"/>
+      <c r="B190" s="48"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="51"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="51"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="53"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B195" s="48"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="53"/>
+      <c r="B196" s="48"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B197" s="48"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="51"/>
+      <c r="B198" s="48"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B199" s="48"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="51"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="51"/>
+      <c r="B201" s="48"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="53"/>
+      <c r="B202" s="48"/>
+      <c r="C202" s="48"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" s="48"/>
+      <c r="C203" s="48"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="53"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="48"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="51"/>
+      <c r="B206" s="48"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B207" s="48"/>
+      <c r="C207" s="48"/>
+      <c r="D207" s="48"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="48"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="51"/>
+      <c r="B208" s="48"/>
+      <c r="C208" s="48"/>
+      <c r="D208" s="48"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="51"/>
+      <c r="B209" s="48"/>
+      <c r="C209" s="48"/>
+      <c r="D209" s="48"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="53"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B211" s="48"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="53"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="48"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B213" s="48"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="48"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="53"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="48"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215" s="48"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="48"/>
+      <c r="B216" s="48"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="48"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
